--- a/Assets/06.Table/ChuSeokAtten.xlsx
+++ b/Assets/06.Table/ChuSeokAtten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65289F-2454-4CB7-858E-63C697BDC613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B9E683-DDE1-439E-BF63-F553041B91AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuSeokAtten" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -523,7 +523,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
@@ -543,7 +543,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
@@ -563,7 +563,7 @@
         <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="1">
         <v>46</v>
@@ -583,7 +583,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
         <v>14</v>
@@ -603,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -623,7 +623,7 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
@@ -643,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -663,7 +663,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="1">
         <v>46</v>
@@ -683,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>14</v>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E13" s="1">
         <v>30</v>
@@ -743,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="1">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
@@ -783,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
@@ -803,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -823,7 +823,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="1">
         <v>30</v>
@@ -843,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
@@ -863,7 +863,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="1">
         <v>46</v>
@@ -883,7 +883,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2">
         <v>14</v>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
